--- a/medicine/Pharmacie/Éther_halogéné/Éther_halogéné.xlsx
+++ b/medicine/Pharmacie/Éther_halogéné/Éther_halogéné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ther_halog%C3%A9n%C3%A9</t>
+          <t>Éther_halogéné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un éther halogéné est une sous-catégorie d'un grand groupe de composés chimiques, les éthers. Un éther est un composé organique qui contient un groupe éther — un atome d'oxygène relié à deux groupes (substitués) alkyl. L'exemple typique est l'éther diéthylique utilisé comme solvant et souvent appelé éther tout court.
 Ce qui distingue un éther halogéné des autres types d'éther est la substitution (halogénisation) d'un ou de plusieurs atomes d'hydrogène par un atome d'halogène. Les atomes d'halogène comprennent le fluor, le chlore, le brome et l'iode. Sur un plan technique, l'élément astate est en fait également un halogène, mais divers facteurs en font qu'il est rarement utilisé en chimie organique.
